--- a/src/test/java/day21_readExcelFile/countries.xlsx
+++ b/src/test/java/day21_readExcelFile/countries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E94CF924-A412-4999-BABF-0DECBCB2F7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47B9327-8F06-4C51-BFC6-10ACF2868E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5085" yWindow="3330" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,7 +1743,7 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>Nufus</t>
+    <t>Numbers</t>
   </si>
   <si>
     <t>1500000</t>
@@ -1756,6 +1756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2176,18 +2177,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,8 +2204,11 @@
       <c r="E1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2234,8 +2238,11 @@
       <c r="E3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2293,8 +2300,11 @@
       <c r="E7" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2322,7 +2332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2336,7 +2346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4881,7 +4891,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
